--- a/요구사항명세서.xlsx
+++ b/요구사항명세서.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\temp_juhi\0919_pjt4\PJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1165D08-FD8C-4A38-8A51-6E2E4D6AECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE5F7BE-6EEE-4222-8BF1-606CF9395474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="16845" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항!$B$3:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항!$B$3:$F$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>기능적 요구사항</t>
   </si>
@@ -54,73 +54,25 @@
     <t>기능</t>
   </si>
   <si>
-    <t>Skill 동적 관리</t>
-  </si>
-  <si>
-    <t>사용자가 Skill(예: HTML, Python 등) 목록과 숙련 퍼센트를 직접 추가·수정·삭제할 수 있는 UI 제공</t>
-  </si>
-  <si>
     <t>F09</t>
   </si>
   <si>
-    <t>Skill 시각화 연동</t>
-  </si>
-  <si>
-    <t>퍼센트 바(Progress Bar)와 연동하여 값 변경 시 시각적 변화가 실시간 반영</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
-    <t>Stack 표 동적 관리</t>
-  </si>
-  <si>
-    <t>Stack(언어/프레임워크 등) 표에서 항목을 직접 추가·삭제·수정할 수 있으며, 각 항목별 로고/아이콘 등 시각 정보를 추가 관리 가능</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
-    <t>포트폴리오 다중 등록/갤러리</t>
-  </si>
-  <si>
-    <t>프로젝트/수상/경험 등을 포트폴리오로 여러 개 등록·관리 가능. 메인 화면에 카드/갤러리 형태로 나열 및 미리보기 지원</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
-    <t>테마 전환</t>
-  </si>
-  <si>
-    <t>다크/라이트 테마 전환 버튼 제공. 전환 시 사이드바, 메인 배경, 텍스트, 버튼, 카드 등 전체 UI 색상 자동 변환</t>
-  </si>
-  <si>
     <t>F13</t>
   </si>
   <si>
-    <t>테마 설정 저장</t>
-  </si>
-  <si>
-    <t>사용자가 선택한 테마를 localStorage 등 브라우저 저장소에 저장하여 새로고침/재방문 시에도 유지</t>
-  </si>
-  <si>
     <t>F14</t>
   </si>
   <si>
-    <t>포트폴리오 상세 관리</t>
-  </si>
-  <si>
-    <t>각 포트폴리오에 대해 프로젝트/경험명, 주요 설명, 담당 역할, 사용 기술(스택), 관련 링크(GitHub/배포), 주요 이미지 등을 상세 등록</t>
-  </si>
-  <si>
     <t>화면</t>
-  </si>
-  <si>
-    <t>포트폴리오 상세 보기/편집</t>
-  </si>
-  <si>
-    <t>“상세 보기/닫기” 버튼으로 모달/팝업에서 상세 정보 표시. 필요 시 수정/삭제 가능</t>
   </si>
   <si>
     <t>필수</t>
@@ -131,132 +83,471 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>NF01</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>사용자 편의성</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NF02</t>
+  </si>
+  <si>
+    <t>정확성</t>
+  </si>
+  <si>
+    <t>메인화면 구성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">홈 화면에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챗봇 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 배치</t>
+    </r>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
     <t>F02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원시 로그 업로드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 로그 정제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정제된 로그 저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 실시간 시각화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 필터링 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 레벨별 색상 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇 화면 전환</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">챗봇 버튼 클릭 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챗봇 화면으로 이동</t>
+    </r>
+  </si>
+  <si>
+    <t>챗봇 프레임 구성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">챗봇 UI는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>태블릿 형태 프레임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 안에 삽입</t>
+    </r>
+  </si>
+  <si>
+    <t>사용자 입력 표시</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입력한 텍스트가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅창에 즉시 표시</t>
+    </r>
+  </si>
+  <si>
+    <t>AI 응답 출력</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">전송 버튼 클릭 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OpenAI API 호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 응답 출력</t>
+    </r>
+  </si>
+  <si>
+    <t>응답 데이터 기반</t>
+  </si>
+  <si>
+    <t>**PJT3 주행 데이터(Firestore)**를 참고하여 AI 응답 구성</t>
+  </si>
+  <si>
+    <t>대화 정렬</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">메시지를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간 순</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 정렬</t>
+    </r>
+  </si>
+  <si>
+    <t>채팅 스크롤</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">채팅창이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크롤 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하도록 구현</t>
+    </r>
+  </si>
+  <si>
+    <t>대화 유지</t>
+  </si>
+  <si>
+    <t>이전 대화 내용은 화면 내에 그대로 유지</t>
+  </si>
+  <si>
+    <t>입력창 배치</t>
+  </si>
+  <si>
+    <r>
+      <t>화면 하단 고정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 오른쪽에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전송 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 배치</t>
+    </r>
+  </si>
+  <si>
+    <t>음성 입력</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">마이크 버튼 클릭 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chrome Speech API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>음성→텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 변환</t>
+    </r>
+  </si>
+  <si>
+    <t>실시간 응답</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">텍스트 변환 후 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바로 채팅에 반영 및 응답 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>음성 자동 삽입</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">음성 인식 결과가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력창이 아닌 채팅창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 바로 삽입</t>
+    </r>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>인식 중 표시</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">음성 입력 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>애니메이션 또는 진행 상태 시각화</t>
+    </r>
   </si>
   <si>
     <t>F15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자별 로그 필터링</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 로그 파일을 업로드하면, 각 줄을 raw_telematics_logs에 저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firebase functions의 onDocumentCreated 트리거로 정제로직 실행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정제된 결과를 telematics_logs컬렉션에 구조화된 형태로 저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firestore의 실시간 구독(onSnapshot)을 통해 웹에 자동표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일/종료일, 로그레벨, 메시지 키워드 기준으로 필터 검색 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>INFO, WARNING, ERROR 등 로그 레벨에 따른 색상 다르게 표시</t>
-  </si>
-  <si>
-    <t>사용자 ID 기준으로 로그를 필터링할 수 있는 기능 추가(log.user)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS 출력</t>
+  </si>
+  <si>
+    <t>AI 응답을 **음성(Text-to-Speech)**으로 출력</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>대화 저장</t>
+  </si>
+  <si>
+    <r>
+      <t>Firestore DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 대화 내용을 저장 → 새로고침 후에도 유지</t>
+    </r>
   </si>
   <si>
     <t>심화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF01</t>
-  </si>
-  <si>
-    <t>UX</t>
-  </si>
-  <si>
-    <t>사용자 편의성</t>
-  </si>
-  <si>
-    <t>비개발자나 일반 사용자도 직관적으로 로그를 업로드하고 조회할 수 있어야 함</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NF02</t>
-  </si>
-  <si>
-    <t>정확성</t>
-  </si>
-  <si>
-    <t>데이터 일관성</t>
-  </si>
-  <si>
-    <t>업로드 된 로그는 정제 시 동일한 규칙으로 처리되며, 시각화 시 실제 저장된 데이터와 불일치하지 않아야 함</t>
+  </si>
+  <si>
+    <t>HTML/CSS/JavaScript 기초 수준만으로도 전체 구조와 흐름 이해 가능</t>
+  </si>
+  <si>
+    <t>기능 완결성</t>
+  </si>
+  <si>
+    <t>모든 버튼/화면 전환/입력/응답 기능은 누락 없이 정상 동작</t>
+  </si>
+  <si>
+    <t>NF03</t>
+  </si>
+  <si>
+    <t>안정성</t>
+  </si>
+  <si>
+    <t>API 연동 안정성</t>
+  </si>
+  <si>
+    <t>OpenAI API, Chrome Speech API 호출 오류/시간 초과 등에 대한 기본 대응 로직 포함</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +571,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -354,25 +654,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,35 +671,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,323 +1005,376 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:F10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
